--- a/biology/Zoologie/Campodeidae/Campodeidae.xlsx
+++ b/biology/Zoologie/Campodeidae/Campodeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Campodeidae sont une famille de diploures, elle comporte plus de 450 espèces réparties en 50 genres.
 Les diploures (Diplura), sont de petits invertébrés terrestres, arthropodes pancrustacés, hexapodes, longtemps considérés comme des insectes.
@@ -512,7 +524,9 @@
           <t>Liste des sous-familles et des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Campodeinae Meinert, 1865
 Afrocampa Silvestri, 1933
@@ -635,7 +649,9 @@
           <t>Espèces du genre Campodea</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste incomplète)
 Campodea fragilis Meinert
@@ -667,7 +683,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Meinert, 1865 : Campodeae: en familie af Thysanurernes orden. Naturhistorisk Tidsskrift. Kjøbenhavn, vol. 3, n. 3, p. 400–440.</t>
         </is>
